--- a/Data/SkillDefine.xlsx
+++ b/Data/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -41,7 +41,13 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>ExtraEntry</t>
+    <t>ExtraEntry1</t>
+  </si>
+  <si>
+    <t>ExtraEntry2</t>
+  </si>
+  <si>
+    <t>ExtraEntry3</t>
   </si>
   <si>
     <t>混元剑坯</t>
@@ -1345,21 +1351,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="15.5384615384615" customWidth="1"/>
     <col min="3" max="3" width="21.1442307692308" customWidth="1"/>
     <col min="4" max="4" width="190.538461538462" customWidth="1"/>
-    <col min="5" max="5" width="24.8365384615385" customWidth="1"/>
+    <col min="5" max="5" width="13.1346153846154" customWidth="1"/>
+    <col min="6" max="6" width="15.2211538461538" customWidth="1"/>
+    <col min="7" max="7" width="14.5769230769231" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1375,266 +1383,425 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
+      <c r="F15">
+        <v>-1</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+      <c r="F17">
+        <v>-1</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+      <c r="F18">
+        <v>-1</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+      <c r="F19">
+        <v>-1</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SkillDefine.xlsx
+++ b/Data/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,9 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>Resource</t>
+  </si>
+  <si>
     <t>ExtraEntry1</t>
   </si>
   <si>
@@ -53,45 +56,63 @@
     <t>混元剑坯</t>
   </si>
   <si>
+    <t>HunYuanSword_0</t>
+  </si>
+  <si>
+    <t>获得一件专属武器，后续可以升级获得进一步加强</t>
+  </si>
+  <si>
+    <t>Skill_HunYuanSword_0</t>
+  </si>
+  <si>
+    <t>混元·御利</t>
+  </si>
+  <si>
     <t>HunYuanSword_1</t>
   </si>
   <si>
-    <t>获得一件专属武器，后续可以升级获得进一步加强</t>
-  </si>
-  <si>
-    <t>混元·御利</t>
+    <t>升级你的混元剑坯，御利分别有着不同的效果，二者随机出现其一。\n混元·御：使用混元剑坯时，增加自身15%攻击伤害的防御，持续一回合\n混元·利：增加混元剑坯10%攻击伤害</t>
+  </si>
+  <si>
+    <t>Skill_HunYuanSword_1</t>
+  </si>
+  <si>
+    <t>混元·御</t>
+  </si>
+  <si>
+    <t>HunYuanYu</t>
+  </si>
+  <si>
+    <t>使用混元剑坯时，增加自身15%攻击伤害的防御，持续一回合</t>
+  </si>
+  <si>
+    <t>Skill_HunYuanYu</t>
+  </si>
+  <si>
+    <t>混元·利</t>
+  </si>
+  <si>
+    <t>HunYuanLi</t>
+  </si>
+  <si>
+    <t>增加混元剑坯10%攻击伤害</t>
+  </si>
+  <si>
+    <t>Skill_HunYuanLi</t>
+  </si>
+  <si>
+    <t>混元·澄疾</t>
   </si>
   <si>
     <t>HunYuanSword_2</t>
   </si>
   <si>
-    <t>升级你的混元剑坯，御利分别有着不同的效果，二者随机出现其一。\n混元·御：使用混元剑坯时，增加自身15%攻击伤害的防御，持续一回合\n混元·利：增加混元剑坯10%攻击伤害</t>
-  </si>
-  <si>
-    <t>混元·御</t>
-  </si>
-  <si>
-    <t>HunYuanYu</t>
-  </si>
-  <si>
-    <t>使用混元剑坯时，增加自身15%攻击伤害的防御，持续一回合</t>
-  </si>
-  <si>
-    <t>混元·利</t>
-  </si>
-  <si>
-    <t>HunYuanLi</t>
-  </si>
-  <si>
-    <t>增加混元剑坯10%攻击伤害</t>
-  </si>
-  <si>
-    <t>混元·澄疾</t>
-  </si>
-  <si>
     <t>升级你的混元剑坯，澄疾利分别有着不同的效果，二者随机出现其一。\n混元·澄：使用混元剑坯后，增加自身运气20点，持续两回合\n混元·疾：使用混元剑坯击伤敌方单位，使行动值提前10%</t>
   </si>
   <si>
+    <t>Skill_HunYuanSword_2</t>
+  </si>
+  <si>
     <t>混元·澄</t>
   </si>
   <si>
@@ -101,6 +122,9 @@
     <t>使用混元剑坯击杀敌方单位后，永久增加自身幸运1点</t>
   </si>
   <si>
+    <t>Skill_HunYuanCheng</t>
+  </si>
+  <si>
     <t>混元·疾</t>
   </si>
   <si>
@@ -110,6 +134,9 @@
     <t>使用混元剑坯击伤敌方单位，使行动值提前10%</t>
   </si>
   <si>
+    <t>Skill_HunYuanji</t>
+  </si>
+  <si>
     <t>混元·无灵</t>
   </si>
   <si>
@@ -119,6 +146,9 @@
     <t>升级你的混元剑坯，无灵分别有着不同的效果，二者随机出现其一。\n混元·无：使用混元剑坯击伤敌方单位时，使该单位陷入一层虚无状态\n混元·灵：使用混元剑坯后，有20%概率返还消耗的精力</t>
   </si>
   <si>
+    <t>Skill_HunYuanSword_3</t>
+  </si>
+  <si>
     <t>混元·无</t>
   </si>
   <si>
@@ -128,6 +158,9 @@
     <t>使用混元剑坯击伤敌方单位时，使该单位陷入一层虚无状态</t>
   </si>
   <si>
+    <t>Skill_HunYuanWu</t>
+  </si>
+  <si>
     <t>混元·灵</t>
   </si>
   <si>
@@ -137,6 +170,9 @@
     <t>使用混元剑坯后，有20%概率返还消耗的精力</t>
   </si>
   <si>
+    <t>Skill_HunYuanLing</t>
+  </si>
+  <si>
     <t>幻·灭</t>
   </si>
   <si>
@@ -146,6 +182,9 @@
     <t>击杀敌方单位后，立即获得一个额外回合</t>
   </si>
   <si>
+    <t>Skill_HuanMie</t>
+  </si>
+  <si>
     <t>幻·梦</t>
   </si>
   <si>
@@ -155,6 +194,9 @@
     <t>击杀敌方单位后，进入隐身状态，持续一回合</t>
   </si>
   <si>
+    <t>Skill_HuanMeng</t>
+  </si>
+  <si>
     <t>幻·身</t>
   </si>
   <si>
@@ -164,6 +206,9 @@
     <t>击杀敌方单位后，行动力提升2，持续一回合。</t>
   </si>
   <si>
+    <t>Skill_HuanJing</t>
+  </si>
+  <si>
     <t>幻·影</t>
   </si>
   <si>
@@ -173,6 +218,9 @@
     <t>当自身血量低于30%时，召唤两个拥有10%自身最大生命值的影分身，自身进入隐身状态，持续一回合</t>
   </si>
   <si>
+    <t>Skill_HuanYing</t>
+  </si>
+  <si>
     <t>钢筋铁骨</t>
   </si>
   <si>
@@ -182,6 +230,9 @@
     <t>自身受到伤害减少20%，一格内队友受到伤害减少10%</t>
   </si>
   <si>
+    <t>Skill_StrongBone</t>
+  </si>
+  <si>
     <t>不灭之志</t>
   </si>
   <si>
@@ -191,6 +242,9 @@
     <t>当自身单次承伤高于自身15%百分比血量时，立即恢复5%最大生命值，每回合最多触发一次</t>
   </si>
   <si>
+    <t>Skill_UnstoppableAspiration</t>
+  </si>
+  <si>
     <t>是兄弟就</t>
   </si>
   <si>
@@ -200,6 +254,9 @@
     <t>增加自身嘲讽值100点</t>
   </si>
   <si>
+    <t>Skill_WeAreBrother</t>
+  </si>
+  <si>
     <t>泥人还有脾气，何况树人</t>
   </si>
   <si>
@@ -207,6 +264,9 @@
   </si>
   <si>
     <t>造成伤害时，额外附加本场战斗中损失总血量10%的伤害</t>
+  </si>
+  <si>
+    <t>Skill_TreeAngry</t>
   </si>
 </sst>
 </file>
@@ -1351,23 +1411,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.5384615384615" customWidth="1"/>
     <col min="3" max="3" width="21.1442307692308" customWidth="1"/>
     <col min="4" max="4" width="190.538461538462" customWidth="1"/>
-    <col min="5" max="5" width="13.1346153846154" customWidth="1"/>
-    <col min="6" max="6" width="15.2211538461538" customWidth="1"/>
-    <col min="7" max="7" width="14.5769230769231" customWidth="1"/>
+    <col min="5" max="5" width="30.9230769230769" customWidth="1"/>
+    <col min="6" max="6" width="13.1346153846154" customWidth="1"/>
+    <col min="7" max="7" width="15.2211538461538" customWidth="1"/>
+    <col min="8" max="8" width="14.5769230769231" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1389,22 +1450,25 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>-1</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -1412,22 +1476,25 @@
       <c r="G2">
         <v>-1</v>
       </c>
+      <c r="H2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -1435,22 +1502,25 @@
       <c r="G3">
         <v>-1</v>
       </c>
+      <c r="H3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -1458,22 +1528,25 @@
       <c r="G4">
         <v>-1</v>
       </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -1481,22 +1554,25 @@
       <c r="G5">
         <v>-1</v>
       </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -1504,22 +1580,25 @@
       <c r="G6">
         <v>-1</v>
       </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -1527,22 +1606,25 @@
       <c r="G7">
         <v>-1</v>
       </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
       </c>
       <c r="F8">
         <v>-1</v>
@@ -1550,22 +1632,25 @@
       <c r="G8">
         <v>-1</v>
       </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>-1</v>
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
       </c>
       <c r="F9">
         <v>-1</v>
@@ -1573,45 +1658,51 @@
       <c r="G9">
         <v>-1</v>
       </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>-1</v>
-      </c>
       <c r="G10">
         <v>-1</v>
       </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11">
-        <v>-1</v>
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
       </c>
       <c r="F11">
         <v>-1</v>
@@ -1619,22 +1710,25 @@
       <c r="G11">
         <v>-1</v>
       </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12">
-        <v>-1</v>
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -1642,45 +1736,51 @@
       <c r="G12">
         <v>-1</v>
       </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>-1</v>
-      </c>
       <c r="G13">
         <v>-1</v>
       </c>
+      <c r="H13">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14">
-        <v>-1</v>
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
       </c>
       <c r="F14">
         <v>-1</v>
@@ -1688,45 +1788,51 @@
       <c r="G14">
         <v>-1</v>
       </c>
+      <c r="H14">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>-1</v>
-      </c>
       <c r="G15">
         <v>-1</v>
       </c>
+      <c r="H15">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16">
-        <v>-1</v>
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
       </c>
       <c r="F16">
         <v>-1</v>
@@ -1734,22 +1840,25 @@
       <c r="G16">
         <v>-1</v>
       </c>
+      <c r="H16">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17">
-        <v>-1</v>
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
       </c>
       <c r="F17">
         <v>-1</v>
@@ -1757,22 +1866,25 @@
       <c r="G17">
         <v>-1</v>
       </c>
+      <c r="H17">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18">
-        <v>-1</v>
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
       </c>
       <c r="F18">
         <v>-1</v>
@@ -1780,27 +1892,33 @@
       <c r="G18">
         <v>-1</v>
       </c>
+      <c r="H18">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19">
-        <v>-1</v>
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
       </c>
       <c r="F19">
         <v>-1</v>
       </c>
       <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="H19">
         <v>-1</v>
       </c>
     </row>

--- a/Data/SkillDefine.xlsx
+++ b/Data/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>ID</t>
   </si>
@@ -35,6 +35,9 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Job</t>
+  </si>
+  <si>
     <t>MethodName</t>
   </si>
   <si>
@@ -179,7 +182,7 @@
     <t>HuanMie</t>
   </si>
   <si>
-    <t>击杀敌方单位后，立即获得一个额外回合</t>
+    <t>击杀敌方单位后，立即获得一个额外回合，冷却一回合</t>
   </si>
   <si>
     <t>Skill_HuanMie</t>
@@ -267,6 +270,306 @@
   </si>
   <si>
     <t>Skill_TreeAngry</t>
+  </si>
+  <si>
+    <t>攻击增幅</t>
+  </si>
+  <si>
+    <t>AddStrength</t>
+  </si>
+  <si>
+    <t>加力量</t>
+  </si>
+  <si>
+    <t>Skill_AddStrength</t>
+  </si>
+  <si>
+    <t>防御增幅</t>
+  </si>
+  <si>
+    <t>AddDefense</t>
+  </si>
+  <si>
+    <t>加防御</t>
+  </si>
+  <si>
+    <t>Skill_AddDefense</t>
+  </si>
+  <si>
+    <t>生命增幅</t>
+  </si>
+  <si>
+    <t>AddMaxHp</t>
+  </si>
+  <si>
+    <t>加最大生命值</t>
+  </si>
+  <si>
+    <t>Skill_AddMaxHp</t>
+  </si>
+  <si>
+    <t>闪避增幅</t>
+  </si>
+  <si>
+    <t>AddDodge</t>
+  </si>
+  <si>
+    <t>加闪避</t>
+  </si>
+  <si>
+    <t>Skill_AddDodge</t>
+  </si>
+  <si>
+    <t>命中增幅</t>
+  </si>
+  <si>
+    <t>AddAccuracy</t>
+  </si>
+  <si>
+    <t>加命中</t>
+  </si>
+  <si>
+    <t>Skill_AddAccuracy</t>
+  </si>
+  <si>
+    <t>速度增幅</t>
+  </si>
+  <si>
+    <t>AddSpeed</t>
+  </si>
+  <si>
+    <t>加速度</t>
+  </si>
+  <si>
+    <t>Skill_AddSpeed</t>
+  </si>
+  <si>
+    <t>精力增幅</t>
+  </si>
+  <si>
+    <t>AddEnergy</t>
+  </si>
+  <si>
+    <t>加精力</t>
+  </si>
+  <si>
+    <t>Skill_AddEnergy</t>
+  </si>
+  <si>
+    <t>钱力</t>
+  </si>
+  <si>
+    <t>MoneyToStrength</t>
+  </si>
+  <si>
+    <t>根据钱的数量增加力量</t>
+  </si>
+  <si>
+    <t>Skill_MoneyToStrength</t>
+  </si>
+  <si>
+    <t>修养身息</t>
+  </si>
+  <si>
+    <t>RecoverBody</t>
+  </si>
+  <si>
+    <t>若一个回合没有释放攻击，则获得护盾</t>
+  </si>
+  <si>
+    <t>Skill_RecoverBody</t>
+  </si>
+  <si>
+    <t>机缘造化</t>
+  </si>
+  <si>
+    <t>LuckyChance</t>
+  </si>
+  <si>
+    <t>获得一个随机职业的造化装备</t>
+  </si>
+  <si>
+    <t>Skill_LuckyChance</t>
+  </si>
+  <si>
+    <t>狂怒血纹</t>
+  </si>
+  <si>
+    <t>AngryTexture</t>
+  </si>
+  <si>
+    <t>根据当前血量百分比增加力量</t>
+  </si>
+  <si>
+    <t>Skill_AngryTexture</t>
+  </si>
+  <si>
+    <t>吸血</t>
+  </si>
+  <si>
+    <t>Hematophagia</t>
+  </si>
+  <si>
+    <t>根据攻击伤害恢复一定比例生命值</t>
+  </si>
+  <si>
+    <t>Skill_Hematophagia</t>
+  </si>
+  <si>
+    <t>破伤风附魔</t>
+  </si>
+  <si>
+    <t>BleedEnchant</t>
+  </si>
+  <si>
+    <t>每一次攻击附加一层流血</t>
+  </si>
+  <si>
+    <t>Skill_BleedEnchant</t>
+  </si>
+  <si>
+    <t>舍近求远</t>
+  </si>
+  <si>
+    <t>PreferFar</t>
+  </si>
+  <si>
+    <t>与敌方单位每相距一格，攻击伤害增加10%</t>
+  </si>
+  <si>
+    <t>Skill_PreferFar</t>
+  </si>
+  <si>
+    <t>名道榫兵</t>
+  </si>
+  <si>
+    <t>MingDao</t>
+  </si>
+  <si>
+    <t>在生命值即将到负值时，置为1，并免疫一切伤害，持续一个回合，每场战斗限一次</t>
+  </si>
+  <si>
+    <t>Skill_MingDao</t>
+  </si>
+  <si>
+    <t>波塞冬赐福</t>
+  </si>
+  <si>
+    <t>PoseidonBlessing</t>
+  </si>
+  <si>
+    <t>攻击附带击退1</t>
+  </si>
+  <si>
+    <t>Skill_PoseidonBlessing</t>
+  </si>
+  <si>
+    <t>敌退我进</t>
+  </si>
+  <si>
+    <t>GoForward</t>
+  </si>
+  <si>
+    <t>对敌方攻击进行闪避后，追加一次攻击</t>
+  </si>
+  <si>
+    <t>Skill_GoForward</t>
+  </si>
+  <si>
+    <t>黎明之前</t>
+  </si>
+  <si>
+    <t>BeforeDawn</t>
+  </si>
+  <si>
+    <t>攻击触发暴击后，获得一点行动力，每回合最多触发一次</t>
+  </si>
+  <si>
+    <t>Skill_BeforeDawn</t>
+  </si>
+  <si>
+    <t>极限操作</t>
+  </si>
+  <si>
+    <t>ExtremeOperation</t>
+  </si>
+  <si>
+    <t>最后一点行动力用作攻击后，获得闪避加成</t>
+  </si>
+  <si>
+    <t>Skill_ExtremeOperation</t>
+  </si>
+  <si>
+    <t>留的青山</t>
+  </si>
+  <si>
+    <t>PrepareEscape</t>
+  </si>
+  <si>
+    <t>当生命值即将到负值时，避免此次伤害不会阵亡，直接传送离开战场</t>
+  </si>
+  <si>
+    <t>Skill_PrepareEscape</t>
+  </si>
+  <si>
+    <t>肉的一</t>
+  </si>
+  <si>
+    <t>VeryHeavy</t>
+  </si>
+  <si>
+    <t>生命和防御大幅提高，其余全属性降低</t>
+  </si>
+  <si>
+    <t>Skill_VeryHeavy</t>
+  </si>
+  <si>
+    <t>不要因为我是娇花</t>
+  </si>
+  <si>
+    <t>AgainstDamage</t>
+  </si>
+  <si>
+    <t>反伤</t>
+  </si>
+  <si>
+    <t>Skill_AgainstDamage</t>
+  </si>
+  <si>
+    <t>防御巩固</t>
+  </si>
+  <si>
+    <t>ReinforceDefense</t>
+  </si>
+  <si>
+    <t>每回合防御不会减半，而是固定减少10点</t>
+  </si>
+  <si>
+    <t>Skill_ReinforceDefense</t>
+  </si>
+  <si>
+    <t>全体目光向我看齐</t>
+  </si>
+  <si>
+    <t>LookMe</t>
+  </si>
+  <si>
+    <t>增加嘲讽值100点</t>
+  </si>
+  <si>
+    <t>Skill_LookMe</t>
+  </si>
+  <si>
+    <t>最后的波纹</t>
+  </si>
+  <si>
+    <t>LastContribution</t>
+  </si>
+  <si>
+    <t>当生命值即将到负值时，避免此次收到的伤害，并根据自身最大生命值给予敌方全体一次伤害</t>
+  </si>
+  <si>
+    <t>Skill_LastContribution</t>
   </si>
 </sst>
 </file>
@@ -1411,24 +1714,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="15.5384615384615" customWidth="1"/>
-    <col min="3" max="3" width="21.1442307692308" customWidth="1"/>
-    <col min="4" max="4" width="190.538461538462" customWidth="1"/>
-    <col min="5" max="5" width="30.9230769230769" customWidth="1"/>
-    <col min="6" max="6" width="13.1346153846154" customWidth="1"/>
-    <col min="7" max="7" width="15.2211538461538" customWidth="1"/>
-    <col min="8" max="8" width="14.5769230769231" customWidth="1"/>
+    <col min="3" max="4" width="21.1442307692308" customWidth="1"/>
+    <col min="5" max="5" width="190.538461538462" customWidth="1"/>
+    <col min="6" max="6" width="30.9230769230769" customWidth="1"/>
+    <col min="7" max="7" width="13.1346153846154" customWidth="1"/>
+    <col min="8" max="8" width="15.2211538461538" customWidth="1"/>
+    <col min="9" max="9" width="14.5769230769231" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1453,16 +1756,19 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
         <v>9</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1470,8 +1776,8 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
-        <v>-1</v>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -1479,16 +1785,19 @@
       <c r="H2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
         <v>13</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1496,8 +1805,8 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
-        <v>-1</v>
+      <c r="F3" t="s">
+        <v>16</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -1505,16 +1814,19 @@
       <c r="H3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
         <v>17</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1522,8 +1834,8 @@
       <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4">
-        <v>-1</v>
+      <c r="F4" t="s">
+        <v>20</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -1531,16 +1843,19 @@
       <c r="H4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
         <v>21</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -1548,8 +1863,8 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5">
-        <v>-1</v>
+      <c r="F5" t="s">
+        <v>24</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -1557,16 +1872,19 @@
       <c r="H5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
         <v>25</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -1574,8 +1892,8 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6">
-        <v>-1</v>
+      <c r="F6" t="s">
+        <v>28</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -1583,16 +1901,19 @@
       <c r="H6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
         <v>29</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -1600,8 +1921,8 @@
       <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="F7">
-        <v>-1</v>
+      <c r="F7" t="s">
+        <v>32</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -1609,16 +1930,19 @@
       <c r="H7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
         <v>33</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1626,8 +1950,8 @@
       <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="F8">
-        <v>-1</v>
+      <c r="F8" t="s">
+        <v>36</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -1635,16 +1959,19 @@
       <c r="H8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
         <v>37</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
@@ -1652,8 +1979,8 @@
       <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="F9">
-        <v>-1</v>
+      <c r="F9" t="s">
+        <v>40</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -1661,16 +1988,19 @@
       <c r="H9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
         <v>41</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -1678,25 +2008,28 @@
       <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
       <c r="H10">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
         <v>45</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
@@ -1704,8 +2037,8 @@
       <c r="E11" t="s">
         <v>47</v>
       </c>
-      <c r="F11">
-        <v>-1</v>
+      <c r="F11" t="s">
+        <v>48</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -1713,16 +2046,19 @@
       <c r="H11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
         <v>49</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
@@ -1730,8 +2066,8 @@
       <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="F12">
-        <v>-1</v>
+      <c r="F12" t="s">
+        <v>52</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -1739,16 +2075,19 @@
       <c r="H12">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
         <v>53</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -1756,25 +2095,28 @@
       <c r="E13" t="s">
         <v>55</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13">
         <v>2</v>
       </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
       <c r="H13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
         <v>57</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
       </c>
       <c r="D14" t="s">
         <v>58</v>
@@ -1782,8 +2124,8 @@
       <c r="E14" t="s">
         <v>59</v>
       </c>
-      <c r="F14">
-        <v>-1</v>
+      <c r="F14" t="s">
+        <v>60</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -1791,16 +2133,19 @@
       <c r="H14">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" t="s">
         <v>61</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>62</v>
@@ -1808,25 +2153,28 @@
       <c r="E15" t="s">
         <v>63</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15">
         <v>2</v>
       </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
       <c r="H15">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
         <v>65</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
       </c>
       <c r="D16" t="s">
         <v>66</v>
@@ -1834,8 +2182,8 @@
       <c r="E16" t="s">
         <v>67</v>
       </c>
-      <c r="F16">
-        <v>-1</v>
+      <c r="F16" t="s">
+        <v>68</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -1843,16 +2191,19 @@
       <c r="H16">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
         <v>69</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
@@ -1860,8 +2211,8 @@
       <c r="E17" t="s">
         <v>71</v>
       </c>
-      <c r="F17">
-        <v>-1</v>
+      <c r="F17" t="s">
+        <v>72</v>
       </c>
       <c r="G17">
         <v>-1</v>
@@ -1869,16 +2220,19 @@
       <c r="H17">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
         <v>73</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>74</v>
@@ -1886,8 +2240,8 @@
       <c r="E18" t="s">
         <v>75</v>
       </c>
-      <c r="F18">
-        <v>-1</v>
+      <c r="F18" t="s">
+        <v>76</v>
       </c>
       <c r="G18">
         <v>-1</v>
@@ -1895,16 +2249,19 @@
       <c r="H18">
         <v>-1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
         <v>77</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
       </c>
       <c r="D19" t="s">
         <v>78</v>
@@ -1912,13 +2269,741 @@
       <c r="E19" t="s">
         <v>79</v>
       </c>
-      <c r="F19">
-        <v>-1</v>
+      <c r="F19" t="s">
+        <v>80</v>
       </c>
       <c r="G19">
         <v>-1</v>
       </c>
       <c r="H19">
+        <v>-1</v>
+      </c>
+      <c r="I19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>1000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+      <c r="H20">
+        <v>-1</v>
+      </c>
+      <c r="I20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>1001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <v>-1</v>
+      </c>
+      <c r="I21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>1002</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+      <c r="H22">
+        <v>-1</v>
+      </c>
+      <c r="I22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>1003</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+      <c r="H23">
+        <v>-1</v>
+      </c>
+      <c r="I23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>1004</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <v>-1</v>
+      </c>
+      <c r="I24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>1005</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+      <c r="H25">
+        <v>-1</v>
+      </c>
+      <c r="I25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>1006</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+      <c r="H26">
+        <v>-1</v>
+      </c>
+      <c r="I26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>1007</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+      <c r="H27">
+        <v>-1</v>
+      </c>
+      <c r="I27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>1008</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+      <c r="H28">
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>1009</v>
+      </c>
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <v>-1</v>
+      </c>
+      <c r="I29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>1010</v>
+      </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+      <c r="H30">
+        <v>-1</v>
+      </c>
+      <c r="I30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>1011</v>
+      </c>
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+      <c r="H31">
+        <v>-1</v>
+      </c>
+      <c r="I31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>1012</v>
+      </c>
+      <c r="B32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>-1</v>
+      </c>
+      <c r="I32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>1013</v>
+      </c>
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+      <c r="H33">
+        <v>-1</v>
+      </c>
+      <c r="I33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>1014</v>
+      </c>
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+      <c r="H34">
+        <v>-1</v>
+      </c>
+      <c r="I34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>1015</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>-1</v>
+      </c>
+      <c r="I35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>1016</v>
+      </c>
+      <c r="B36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+      <c r="H36">
+        <v>-1</v>
+      </c>
+      <c r="I36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>1017</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" t="s">
+        <v>152</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+      <c r="H37">
+        <v>-1</v>
+      </c>
+      <c r="I37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>1018</v>
+      </c>
+      <c r="B38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38">
+        <v>-1</v>
+      </c>
+      <c r="H38">
+        <v>-1</v>
+      </c>
+      <c r="I38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>1019</v>
+      </c>
+      <c r="B39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39">
+        <v>-1</v>
+      </c>
+      <c r="H39">
+        <v>-1</v>
+      </c>
+      <c r="I39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>1020</v>
+      </c>
+      <c r="B40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40">
+        <v>-1</v>
+      </c>
+      <c r="H40">
+        <v>-1</v>
+      </c>
+      <c r="I40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>1021</v>
+      </c>
+      <c r="B41" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" t="s">
+        <v>167</v>
+      </c>
+      <c r="F41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41">
+        <v>-1</v>
+      </c>
+      <c r="H41">
+        <v>-1</v>
+      </c>
+      <c r="I41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>1022</v>
+      </c>
+      <c r="B42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42">
+        <v>-1</v>
+      </c>
+      <c r="H42">
+        <v>-1</v>
+      </c>
+      <c r="I42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>1023</v>
+      </c>
+      <c r="B43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" t="s">
+        <v>176</v>
+      </c>
+      <c r="G43">
+        <v>-1</v>
+      </c>
+      <c r="H43">
+        <v>-1</v>
+      </c>
+      <c r="I43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>1024</v>
+      </c>
+      <c r="B44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G44">
+        <v>-1</v>
+      </c>
+      <c r="H44">
+        <v>-1</v>
+      </c>
+      <c r="I44">
         <v>-1</v>
       </c>
     </row>

--- a/Data/SkillDefine.xlsx
+++ b/Data/SkillDefine.xlsx
@@ -1717,7 +1717,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/Data/SkillDefine.xlsx
+++ b/Data/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>ID</t>
   </si>
@@ -38,6 +38,9 @@
     <t>Job</t>
   </si>
   <si>
+    <t>InvokeType</t>
+  </si>
+  <si>
     <t>MethodName</t>
   </si>
   <si>
@@ -74,7 +77,7 @@
     <t>HunYuanSword_1</t>
   </si>
   <si>
-    <t>升级你的混元剑坯，御利分别有着不同的效果，二者随机出现其一。\n混元·御：使用混元剑坯时，增加自身15%攻击伤害的防御，持续一回合\n混元·利：增加混元剑坯10%攻击伤害</t>
+    <t>升级你的混元剑坯，御利分别有着不同的效果，二者随机出现其一。\n混元·御：使用混元剑坯时，增加自身15%攻击伤害的护盾，持续一回合\n混元·利：增加混元剑坯10%攻击伤害</t>
   </si>
   <si>
     <t>Skill_HunYuanSword_1</t>
@@ -86,7 +89,7 @@
     <t>HunYuanYu</t>
   </si>
   <si>
-    <t>使用混元剑坯时，增加自身15%攻击伤害的防御，持续一回合</t>
+    <t>增加8护盾</t>
   </si>
   <si>
     <t>Skill_HunYuanYu</t>
@@ -98,7 +101,7 @@
     <t>HunYuanLi</t>
   </si>
   <si>
-    <t>增加混元剑坯10%攻击伤害</t>
+    <t>增加混元剑坯5攻击伤害</t>
   </si>
   <si>
     <t>Skill_HunYuanLi</t>
@@ -1714,24 +1717,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="15.5384615384615" customWidth="1"/>
-    <col min="3" max="4" width="21.1442307692308" customWidth="1"/>
-    <col min="5" max="5" width="190.538461538462" customWidth="1"/>
-    <col min="6" max="6" width="30.9230769230769" customWidth="1"/>
-    <col min="7" max="7" width="13.1346153846154" customWidth="1"/>
-    <col min="8" max="8" width="15.2211538461538" customWidth="1"/>
-    <col min="9" max="9" width="14.5769230769231" customWidth="1"/>
+    <col min="3" max="5" width="21.1442307692308" customWidth="1"/>
+    <col min="6" max="6" width="190.538461538462" customWidth="1"/>
+    <col min="7" max="7" width="30.9230769230769" customWidth="1"/>
+    <col min="8" max="8" width="13.1346153846154" customWidth="1"/>
+    <col min="9" max="9" width="15.2211538461538" customWidth="1"/>
+    <col min="10" max="10" width="14.5769230769231" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1759,28 +1762,28 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>-1</v>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
       <c r="H2">
         <v>-1</v>
@@ -1788,28 +1791,28 @@
       <c r="I2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="G3">
-        <v>-1</v>
+      <c r="G3" t="s">
+        <v>17</v>
       </c>
       <c r="H3">
         <v>-1</v>
@@ -1817,28 +1820,28 @@
       <c r="I3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="G4">
-        <v>-1</v>
+      <c r="G4" t="s">
+        <v>21</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -1846,28 +1849,28 @@
       <c r="I4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" t="s">
         <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5">
-        <v>-1</v>
+      <c r="G5" t="s">
+        <v>25</v>
       </c>
       <c r="H5">
         <v>-1</v>
@@ -1875,28 +1878,28 @@
       <c r="I5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="G6">
-        <v>-1</v>
+      <c r="G6" t="s">
+        <v>29</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -1904,28 +1907,28 @@
       <c r="I6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" t="s">
         <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="G7">
-        <v>-1</v>
+      <c r="G7" t="s">
+        <v>33</v>
       </c>
       <c r="H7">
         <v>-1</v>
@@ -1933,28 +1936,28 @@
       <c r="I7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="G8">
-        <v>-1</v>
+      <c r="G8" t="s">
+        <v>37</v>
       </c>
       <c r="H8">
         <v>-1</v>
@@ -1962,28 +1965,28 @@
       <c r="I8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
       <c r="E9" t="s">
         <v>39</v>
       </c>
       <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="G9">
-        <v>-1</v>
+      <c r="G9" t="s">
+        <v>41</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -1991,57 +1994,57 @@
       <c r="I9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
       <c r="E10" t="s">
         <v>43</v>
       </c>
       <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="H10">
-        <v>-1</v>
-      </c>
       <c r="I10">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
       <c r="E11" t="s">
         <v>47</v>
       </c>
       <c r="F11" t="s">
         <v>48</v>
       </c>
-      <c r="G11">
-        <v>-1</v>
+      <c r="G11" t="s">
+        <v>49</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -2049,28 +2052,28 @@
       <c r="I11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
         <v>52</v>
       </c>
-      <c r="G12">
-        <v>-1</v>
+      <c r="G12" t="s">
+        <v>53</v>
       </c>
       <c r="H12">
         <v>-1</v>
@@ -2078,57 +2081,57 @@
       <c r="I12">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
       <c r="E13" t="s">
         <v>55</v>
       </c>
       <c r="F13" t="s">
         <v>56</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="H13">
-        <v>-1</v>
-      </c>
       <c r="I13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
       <c r="E14" t="s">
         <v>59</v>
       </c>
       <c r="F14" t="s">
         <v>60</v>
       </c>
-      <c r="G14">
-        <v>-1</v>
+      <c r="G14" t="s">
+        <v>61</v>
       </c>
       <c r="H14">
         <v>-1</v>
@@ -2136,57 +2139,57 @@
       <c r="I14">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
       <c r="E15" t="s">
         <v>63</v>
       </c>
       <c r="F15" t="s">
         <v>64</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15">
         <v>2</v>
       </c>
-      <c r="H15">
-        <v>-1</v>
-      </c>
       <c r="I15">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
       <c r="E16" t="s">
         <v>67</v>
       </c>
       <c r="F16" t="s">
         <v>68</v>
       </c>
-      <c r="G16">
-        <v>-1</v>
+      <c r="G16" t="s">
+        <v>69</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -2194,28 +2197,28 @@
       <c r="I16">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
       <c r="E17" t="s">
         <v>71</v>
       </c>
       <c r="F17" t="s">
         <v>72</v>
       </c>
-      <c r="G17">
-        <v>-1</v>
+      <c r="G17" t="s">
+        <v>73</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -2223,28 +2226,28 @@
       <c r="I17">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
       <c r="E18" t="s">
         <v>75</v>
       </c>
       <c r="F18" t="s">
         <v>76</v>
       </c>
-      <c r="G18">
-        <v>-1</v>
+      <c r="G18" t="s">
+        <v>77</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -2252,28 +2255,28 @@
       <c r="I18">
         <v>-1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
       <c r="E19" t="s">
         <v>79</v>
       </c>
       <c r="F19" t="s">
         <v>80</v>
       </c>
-      <c r="G19">
-        <v>-1</v>
+      <c r="G19" t="s">
+        <v>81</v>
       </c>
       <c r="H19">
         <v>-1</v>
@@ -2281,28 +2284,28 @@
       <c r="I19">
         <v>-1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>1000</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>82</v>
-      </c>
       <c r="E20" t="s">
         <v>83</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>
       </c>
-      <c r="G20">
-        <v>-1</v>
+      <c r="G20" t="s">
+        <v>85</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -2310,28 +2313,28 @@
       <c r="I20">
         <v>-1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>1001</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>86</v>
-      </c>
       <c r="E21" t="s">
         <v>87</v>
       </c>
       <c r="F21" t="s">
         <v>88</v>
       </c>
-      <c r="G21">
-        <v>-1</v>
+      <c r="G21" t="s">
+        <v>89</v>
       </c>
       <c r="H21">
         <v>-1</v>
@@ -2339,28 +2342,28 @@
       <c r="I21">
         <v>-1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>1002</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>90</v>
-      </c>
       <c r="E22" t="s">
         <v>91</v>
       </c>
       <c r="F22" t="s">
         <v>92</v>
       </c>
-      <c r="G22">
-        <v>-1</v>
+      <c r="G22" t="s">
+        <v>93</v>
       </c>
       <c r="H22">
         <v>-1</v>
@@ -2368,28 +2371,28 @@
       <c r="I22">
         <v>-1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>1003</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
       <c r="E23" t="s">
         <v>95</v>
       </c>
       <c r="F23" t="s">
         <v>96</v>
       </c>
-      <c r="G23">
-        <v>-1</v>
+      <c r="G23" t="s">
+        <v>97</v>
       </c>
       <c r="H23">
         <v>-1</v>
@@ -2397,28 +2400,28 @@
       <c r="I23">
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>1004</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>98</v>
-      </c>
       <c r="E24" t="s">
         <v>99</v>
       </c>
       <c r="F24" t="s">
         <v>100</v>
       </c>
-      <c r="G24">
-        <v>-1</v>
+      <c r="G24" t="s">
+        <v>101</v>
       </c>
       <c r="H24">
         <v>-1</v>
@@ -2426,28 +2429,28 @@
       <c r="I24">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>1005</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>102</v>
-      </c>
       <c r="E25" t="s">
         <v>103</v>
       </c>
       <c r="F25" t="s">
         <v>104</v>
       </c>
-      <c r="G25">
-        <v>-1</v>
+      <c r="G25" t="s">
+        <v>105</v>
       </c>
       <c r="H25">
         <v>-1</v>
@@ -2455,28 +2458,28 @@
       <c r="I25">
         <v>-1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>1006</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
-        <v>106</v>
-      </c>
       <c r="E26" t="s">
         <v>107</v>
       </c>
       <c r="F26" t="s">
         <v>108</v>
       </c>
-      <c r="G26">
-        <v>-1</v>
+      <c r="G26" t="s">
+        <v>109</v>
       </c>
       <c r="H26">
         <v>-1</v>
@@ -2484,28 +2487,28 @@
       <c r="I26">
         <v>-1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>1007</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27" t="s">
-        <v>110</v>
-      </c>
       <c r="E27" t="s">
         <v>111</v>
       </c>
       <c r="F27" t="s">
         <v>112</v>
       </c>
-      <c r="G27">
-        <v>-1</v>
+      <c r="G27" t="s">
+        <v>113</v>
       </c>
       <c r="H27">
         <v>-1</v>
@@ -2513,28 +2516,28 @@
       <c r="I27">
         <v>-1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>1008</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>114</v>
-      </c>
       <c r="E28" t="s">
         <v>115</v>
       </c>
       <c r="F28" t="s">
         <v>116</v>
       </c>
-      <c r="G28">
-        <v>-1</v>
+      <c r="G28" t="s">
+        <v>117</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -2542,28 +2545,28 @@
       <c r="I28">
         <v>-1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>1009</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
-        <v>118</v>
-      </c>
       <c r="E29" t="s">
         <v>119</v>
       </c>
       <c r="F29" t="s">
         <v>120</v>
       </c>
-      <c r="G29">
-        <v>-1</v>
+      <c r="G29" t="s">
+        <v>121</v>
       </c>
       <c r="H29">
         <v>-1</v>
@@ -2571,28 +2574,28 @@
       <c r="I29">
         <v>-1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>1010</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" t="s">
-        <v>122</v>
-      </c>
       <c r="E30" t="s">
         <v>123</v>
       </c>
       <c r="F30" t="s">
         <v>124</v>
       </c>
-      <c r="G30">
-        <v>-1</v>
+      <c r="G30" t="s">
+        <v>125</v>
       </c>
       <c r="H30">
         <v>-1</v>
@@ -2600,28 +2603,28 @@
       <c r="I30">
         <v>-1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>1011</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" t="s">
-        <v>126</v>
-      </c>
       <c r="E31" t="s">
         <v>127</v>
       </c>
       <c r="F31" t="s">
         <v>128</v>
       </c>
-      <c r="G31">
-        <v>-1</v>
+      <c r="G31" t="s">
+        <v>129</v>
       </c>
       <c r="H31">
         <v>-1</v>
@@ -2629,57 +2632,57 @@
       <c r="I31">
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>1012</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
-        <v>130</v>
-      </c>
       <c r="E32" t="s">
         <v>131</v>
       </c>
       <c r="F32" t="s">
         <v>132</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32">
         <v>2</v>
       </c>
-      <c r="H32">
-        <v>-1</v>
-      </c>
       <c r="I32">
         <v>-1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>1013</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" t="s">
-        <v>134</v>
-      </c>
       <c r="E33" t="s">
         <v>135</v>
       </c>
       <c r="F33" t="s">
         <v>136</v>
       </c>
-      <c r="G33">
-        <v>-1</v>
+      <c r="G33" t="s">
+        <v>137</v>
       </c>
       <c r="H33">
         <v>-1</v>
@@ -2687,28 +2690,28 @@
       <c r="I33">
         <v>-1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>1014</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" t="s">
-        <v>138</v>
-      </c>
       <c r="E34" t="s">
         <v>139</v>
       </c>
       <c r="F34" t="s">
         <v>140</v>
       </c>
-      <c r="G34">
-        <v>-1</v>
+      <c r="G34" t="s">
+        <v>141</v>
       </c>
       <c r="H34">
         <v>-1</v>
@@ -2716,57 +2719,57 @@
       <c r="I34">
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>1015</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" t="s">
-        <v>142</v>
-      </c>
       <c r="E35" t="s">
         <v>143</v>
       </c>
       <c r="F35" t="s">
         <v>144</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35">
         <v>3</v>
       </c>
-      <c r="H35">
-        <v>-1</v>
-      </c>
       <c r="I35">
         <v>-1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>1016</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
-        <v>146</v>
-      </c>
       <c r="E36" t="s">
         <v>147</v>
       </c>
       <c r="F36" t="s">
         <v>148</v>
       </c>
-      <c r="G36">
-        <v>-1</v>
+      <c r="G36" t="s">
+        <v>149</v>
       </c>
       <c r="H36">
         <v>-1</v>
@@ -2774,28 +2777,28 @@
       <c r="I36">
         <v>-1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>1017</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" t="s">
-        <v>150</v>
-      </c>
       <c r="E37" t="s">
         <v>151</v>
       </c>
       <c r="F37" t="s">
         <v>152</v>
       </c>
-      <c r="G37">
-        <v>-1</v>
+      <c r="G37" t="s">
+        <v>153</v>
       </c>
       <c r="H37">
         <v>-1</v>
@@ -2803,28 +2806,28 @@
       <c r="I37">
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>1018</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
-      <c r="D38" t="s">
-        <v>154</v>
-      </c>
       <c r="E38" t="s">
         <v>155</v>
       </c>
       <c r="F38" t="s">
         <v>156</v>
       </c>
-      <c r="G38">
-        <v>-1</v>
+      <c r="G38" t="s">
+        <v>157</v>
       </c>
       <c r="H38">
         <v>-1</v>
@@ -2832,28 +2835,28 @@
       <c r="I38">
         <v>-1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>1019</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39" t="s">
-        <v>158</v>
-      </c>
       <c r="E39" t="s">
         <v>159</v>
       </c>
       <c r="F39" t="s">
         <v>160</v>
       </c>
-      <c r="G39">
-        <v>-1</v>
+      <c r="G39" t="s">
+        <v>161</v>
       </c>
       <c r="H39">
         <v>-1</v>
@@ -2861,28 +2864,28 @@
       <c r="I39">
         <v>-1</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>1020</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
-      <c r="D40" t="s">
-        <v>162</v>
-      </c>
       <c r="E40" t="s">
         <v>163</v>
       </c>
       <c r="F40" t="s">
         <v>164</v>
       </c>
-      <c r="G40">
-        <v>-1</v>
+      <c r="G40" t="s">
+        <v>165</v>
       </c>
       <c r="H40">
         <v>-1</v>
@@ -2890,28 +2893,28 @@
       <c r="I40">
         <v>-1</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>1021</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
-      <c r="D41" t="s">
-        <v>166</v>
-      </c>
       <c r="E41" t="s">
         <v>167</v>
       </c>
       <c r="F41" t="s">
         <v>168</v>
       </c>
-      <c r="G41">
-        <v>-1</v>
+      <c r="G41" t="s">
+        <v>169</v>
       </c>
       <c r="H41">
         <v>-1</v>
@@ -2919,28 +2922,28 @@
       <c r="I41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>1022</v>
       </c>
       <c r="B42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
-      <c r="D42" t="s">
-        <v>170</v>
-      </c>
       <c r="E42" t="s">
         <v>171</v>
       </c>
       <c r="F42" t="s">
         <v>172</v>
       </c>
-      <c r="G42">
-        <v>-1</v>
+      <c r="G42" t="s">
+        <v>173</v>
       </c>
       <c r="H42">
         <v>-1</v>
@@ -2948,28 +2951,28 @@
       <c r="I42">
         <v>-1</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>1023</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
-      <c r="D43" t="s">
-        <v>174</v>
-      </c>
       <c r="E43" t="s">
         <v>175</v>
       </c>
       <c r="F43" t="s">
         <v>176</v>
       </c>
-      <c r="G43">
-        <v>-1</v>
+      <c r="G43" t="s">
+        <v>177</v>
       </c>
       <c r="H43">
         <v>-1</v>
@@ -2977,33 +2980,36 @@
       <c r="I43">
         <v>-1</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>1024</v>
       </c>
       <c r="B44" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
-      <c r="D44" t="s">
-        <v>178</v>
-      </c>
       <c r="E44" t="s">
         <v>179</v>
       </c>
       <c r="F44" t="s">
         <v>180</v>
       </c>
-      <c r="G44">
-        <v>-1</v>
+      <c r="G44" t="s">
+        <v>181</v>
       </c>
       <c r="H44">
         <v>-1</v>
       </c>
       <c r="I44">
+        <v>-1</v>
+      </c>
+      <c r="J44">
         <v>-1</v>
       </c>
     </row>

--- a/Data/SkillDefine.xlsx
+++ b/Data/SkillDefine.xlsx
@@ -1720,7 +1720,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/Data/SkillDefine.xlsx
+++ b/Data/SkillDefine.xlsx
@@ -1720,7 +1720,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/Data/SkillDefine.xlsx
+++ b/Data/SkillDefine.xlsx
@@ -1719,8 +1719,8 @@
   <sheetPr/>
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1776,6 +1776,9 @@
       <c r="C2">
         <v>4</v>
       </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
@@ -1805,6 +1808,9 @@
       <c r="C3">
         <v>4</v>
       </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
@@ -1834,6 +1840,9 @@
       <c r="C4">
         <v>4</v>
       </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
@@ -1863,6 +1872,9 @@
       <c r="C5">
         <v>4</v>
       </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
       <c r="E5" t="s">
         <v>23</v>
       </c>
@@ -1892,6 +1904,9 @@
       <c r="C6">
         <v>4</v>
       </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -1921,6 +1936,9 @@
       <c r="C7">
         <v>4</v>
       </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
       <c r="E7" t="s">
         <v>31</v>
       </c>
@@ -1950,6 +1968,9 @@
       <c r="C8">
         <v>4</v>
       </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
@@ -1979,6 +2000,9 @@
       <c r="C9">
         <v>4</v>
       </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
       <c r="E9" t="s">
         <v>39</v>
       </c>
@@ -2008,6 +2032,9 @@
       <c r="C10">
         <v>4</v>
       </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
       <c r="E10" t="s">
         <v>43</v>
       </c>
@@ -2037,6 +2064,9 @@
       <c r="C11">
         <v>4</v>
       </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
       <c r="E11" t="s">
         <v>47</v>
       </c>
@@ -2066,6 +2096,9 @@
       <c r="C12">
         <v>4</v>
       </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
       <c r="E12" t="s">
         <v>51</v>
       </c>
@@ -2095,6 +2128,9 @@
       <c r="C13">
         <v>4</v>
       </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
       <c r="E13" t="s">
         <v>55</v>
       </c>
@@ -2124,6 +2160,9 @@
       <c r="C14">
         <v>4</v>
       </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
       <c r="E14" t="s">
         <v>59</v>
       </c>
@@ -2153,6 +2192,9 @@
       <c r="C15">
         <v>4</v>
       </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
       <c r="E15" t="s">
         <v>63</v>
       </c>
@@ -2182,6 +2224,9 @@
       <c r="C16">
         <v>4</v>
       </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
       <c r="E16" t="s">
         <v>67</v>
       </c>
@@ -2211,6 +2256,9 @@
       <c r="C17">
         <v>4</v>
       </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
       <c r="E17" t="s">
         <v>71</v>
       </c>
@@ -2240,6 +2288,9 @@
       <c r="C18">
         <v>4</v>
       </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
       <c r="E18" t="s">
         <v>75</v>
       </c>
@@ -2269,6 +2320,9 @@
       <c r="C19">
         <v>4</v>
       </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
       <c r="E19" t="s">
         <v>79</v>
       </c>
@@ -2298,6 +2352,9 @@
       <c r="C20">
         <v>0</v>
       </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
       <c r="E20" t="s">
         <v>83</v>
       </c>
@@ -2327,6 +2384,9 @@
       <c r="C21">
         <v>0</v>
       </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
       <c r="E21" t="s">
         <v>87</v>
       </c>
@@ -2356,6 +2416,9 @@
       <c r="C22">
         <v>0</v>
       </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
       <c r="E22" t="s">
         <v>91</v>
       </c>
@@ -2385,6 +2448,9 @@
       <c r="C23">
         <v>0</v>
       </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
       <c r="E23" t="s">
         <v>95</v>
       </c>
@@ -2414,6 +2480,9 @@
       <c r="C24">
         <v>0</v>
       </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
       <c r="E24" t="s">
         <v>99</v>
       </c>
@@ -2443,6 +2512,9 @@
       <c r="C25">
         <v>0</v>
       </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
       <c r="E25" t="s">
         <v>103</v>
       </c>
@@ -2472,6 +2544,9 @@
       <c r="C26">
         <v>0</v>
       </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
       <c r="E26" t="s">
         <v>107</v>
       </c>
@@ -2501,6 +2576,9 @@
       <c r="C27">
         <v>0</v>
       </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
       <c r="E27" t="s">
         <v>111</v>
       </c>
@@ -2530,6 +2608,9 @@
       <c r="C28">
         <v>0</v>
       </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
       <c r="E28" t="s">
         <v>115</v>
       </c>
@@ -2559,6 +2640,9 @@
       <c r="C29">
         <v>0</v>
       </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
       <c r="E29" t="s">
         <v>119</v>
       </c>
@@ -2588,6 +2672,9 @@
       <c r="C30">
         <v>1</v>
       </c>
+      <c r="D30">
+        <v>-1</v>
+      </c>
       <c r="E30" t="s">
         <v>123</v>
       </c>
@@ -2617,6 +2704,9 @@
       <c r="C31">
         <v>1</v>
       </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
       <c r="E31" t="s">
         <v>127</v>
       </c>
@@ -2646,6 +2736,9 @@
       <c r="C32">
         <v>1</v>
       </c>
+      <c r="D32">
+        <v>-1</v>
+      </c>
       <c r="E32" t="s">
         <v>131</v>
       </c>
@@ -2675,6 +2768,9 @@
       <c r="C33">
         <v>1</v>
       </c>
+      <c r="D33">
+        <v>-1</v>
+      </c>
       <c r="E33" t="s">
         <v>135</v>
       </c>
@@ -2704,6 +2800,9 @@
       <c r="C34">
         <v>1</v>
       </c>
+      <c r="D34">
+        <v>-1</v>
+      </c>
       <c r="E34" t="s">
         <v>139</v>
       </c>
@@ -2733,6 +2832,9 @@
       <c r="C35">
         <v>2</v>
       </c>
+      <c r="D35">
+        <v>-1</v>
+      </c>
       <c r="E35" t="s">
         <v>143</v>
       </c>
@@ -2762,6 +2864,9 @@
       <c r="C36">
         <v>2</v>
       </c>
+      <c r="D36">
+        <v>-1</v>
+      </c>
       <c r="E36" t="s">
         <v>147</v>
       </c>
@@ -2791,6 +2896,9 @@
       <c r="C37">
         <v>2</v>
       </c>
+      <c r="D37">
+        <v>-1</v>
+      </c>
       <c r="E37" t="s">
         <v>151</v>
       </c>
@@ -2820,6 +2928,9 @@
       <c r="C38">
         <v>2</v>
       </c>
+      <c r="D38">
+        <v>-1</v>
+      </c>
       <c r="E38" t="s">
         <v>155</v>
       </c>
@@ -2849,6 +2960,9 @@
       <c r="C39">
         <v>2</v>
       </c>
+      <c r="D39">
+        <v>-1</v>
+      </c>
       <c r="E39" t="s">
         <v>159</v>
       </c>
@@ -2878,6 +2992,9 @@
       <c r="C40">
         <v>3</v>
       </c>
+      <c r="D40">
+        <v>-1</v>
+      </c>
       <c r="E40" t="s">
         <v>163</v>
       </c>
@@ -2907,6 +3024,9 @@
       <c r="C41">
         <v>3</v>
       </c>
+      <c r="D41">
+        <v>-1</v>
+      </c>
       <c r="E41" t="s">
         <v>167</v>
       </c>
@@ -2936,6 +3056,9 @@
       <c r="C42">
         <v>3</v>
       </c>
+      <c r="D42">
+        <v>-1</v>
+      </c>
       <c r="E42" t="s">
         <v>171</v>
       </c>
@@ -2965,6 +3088,9 @@
       <c r="C43">
         <v>3</v>
       </c>
+      <c r="D43">
+        <v>-1</v>
+      </c>
       <c r="E43" t="s">
         <v>175</v>
       </c>
@@ -2993,6 +3119,9 @@
       </c>
       <c r="C44">
         <v>3</v>
+      </c>
+      <c r="D44">
+        <v>-1</v>
       </c>
       <c r="E44" t="s">
         <v>179</v>

--- a/Data/SkillDefine.xlsx
+++ b/Data/SkillDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="28800" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
     <t>HunYuanJi</t>
   </si>
   <si>
-    <t>使用混元剑坯击伤敌方单位，使行动值提前10%</t>
+    <t>使用混元剑坯击伤敌方单位，使下一轮行动值提前10%</t>
   </si>
   <si>
     <t>Skill_HunYuanji</t>
@@ -1719,8 +1719,8 @@
   <sheetPr/>
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/Data/SkillDefine.xlsx
+++ b/Data/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,12 @@
     <t>InvokeType</t>
   </si>
   <si>
+    <t>PropertyType</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
     <t>MethodName</t>
   </si>
   <si>
@@ -206,10 +212,10 @@
     <t>幻·身</t>
   </si>
   <si>
-    <t>HuanJing</t>
-  </si>
-  <si>
-    <t>击杀敌方单位后，行动力提升2，持续一回合。</t>
+    <t>HuanShen</t>
+  </si>
+  <si>
+    <t>击杀敌方单位后，精力回复1。</t>
   </si>
   <si>
     <t>Skill_HuanJing</t>
@@ -233,7 +239,7 @@
     <t>StrongBone</t>
   </si>
   <si>
-    <t>自身受到伤害减少20%，一格内队友受到伤害减少10%</t>
+    <t>自身受到伤害减少20%，自身移动后一格内队友受到伤害减少10%，持续一回合</t>
   </si>
   <si>
     <t>Skill_StrongBone</t>
@@ -1717,24 +1723,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F2" sqref="F2:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="15.5384615384615" customWidth="1"/>
-    <col min="3" max="5" width="21.1442307692308" customWidth="1"/>
-    <col min="6" max="6" width="190.538461538462" customWidth="1"/>
-    <col min="7" max="7" width="30.9230769230769" customWidth="1"/>
-    <col min="8" max="8" width="13.1346153846154" customWidth="1"/>
-    <col min="9" max="9" width="15.2211538461538" customWidth="1"/>
-    <col min="10" max="10" width="14.5769230769231" customWidth="1"/>
+    <col min="3" max="7" width="21.1442307692308" customWidth="1"/>
+    <col min="8" max="8" width="190.538461538462" customWidth="1"/>
+    <col min="9" max="9" width="30.9230769230769" customWidth="1"/>
+    <col min="10" max="10" width="13.1346153846154" customWidth="1"/>
+    <col min="11" max="11" width="15.2211538461538" customWidth="1"/>
+    <col min="12" max="12" width="14.5769230769231" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1765,45 +1771,57 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>-1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2">
-        <v>-1</v>
-      </c>
-      <c r="I2">
-        <v>-1</v>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
       <c r="J2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1811,95 +1829,113 @@
       <c r="D3">
         <v>-1</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H3">
-        <v>-1</v>
-      </c>
-      <c r="I3">
-        <v>-1</v>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
       </c>
       <c r="J3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>-1</v>
+      </c>
+      <c r="L3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>-1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="H4">
-        <v>-1</v>
-      </c>
-      <c r="I4">
-        <v>-1</v>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
       </c>
       <c r="J4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="H5">
-        <v>-1</v>
-      </c>
-      <c r="I5">
-        <v>-1</v>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
       </c>
       <c r="J5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1907,95 +1943,113 @@
       <c r="D6">
         <v>-1</v>
       </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="H6">
-        <v>-1</v>
-      </c>
-      <c r="I6">
-        <v>-1</v>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
       </c>
       <c r="J6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="H7">
-        <v>-1</v>
-      </c>
-      <c r="I7">
-        <v>-1</v>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
       </c>
       <c r="J7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
       </c>
-      <c r="H8">
-        <v>-1</v>
-      </c>
-      <c r="I8">
-        <v>-1</v>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
       </c>
       <c r="J8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2003,223 +2057,265 @@
       <c r="D9">
         <v>-1</v>
       </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
       </c>
-      <c r="H9">
-        <v>-1</v>
-      </c>
-      <c r="I9">
-        <v>-1</v>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
       </c>
       <c r="J9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>-1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>-1</v>
-      </c>
-      <c r="J10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11" t="s">
         <v>49</v>
       </c>
-      <c r="H11">
-        <v>-1</v>
-      </c>
-      <c r="I11">
-        <v>-1</v>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
       </c>
       <c r="J11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>-1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12" t="s">
         <v>53</v>
       </c>
-      <c r="H12">
-        <v>-1</v>
-      </c>
-      <c r="I12">
-        <v>-1</v>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
       </c>
       <c r="J12">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13">
-        <v>-1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13" t="s">
         <v>57</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13">
         <v>2</v>
       </c>
-      <c r="I13">
-        <v>-1</v>
-      </c>
-      <c r="J13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>-1</v>
+      </c>
+      <c r="L13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14">
-        <v>-1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>61</v>
       </c>
-      <c r="H14">
-        <v>-1</v>
-      </c>
-      <c r="I14">
-        <v>-1</v>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" t="s">
+        <v>63</v>
       </c>
       <c r="J14">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>-1</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15">
-        <v>-1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15" t="s">
         <v>65</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15">
         <v>2</v>
       </c>
-      <c r="I15">
-        <v>-1</v>
-      </c>
-      <c r="J15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>-1</v>
+      </c>
+      <c r="L15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2227,31 +2323,37 @@
       <c r="D16">
         <v>-1</v>
       </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" t="s">
-        <v>68</v>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
       </c>
       <c r="G16" t="s">
         <v>69</v>
       </c>
-      <c r="H16">
-        <v>-1</v>
-      </c>
-      <c r="I16">
-        <v>-1</v>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
       </c>
       <c r="J16">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>-1</v>
+      </c>
+      <c r="L16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2259,95 +2361,113 @@
       <c r="D17">
         <v>-1</v>
       </c>
-      <c r="E17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17" t="s">
         <v>73</v>
       </c>
-      <c r="H17">
-        <v>-1</v>
-      </c>
-      <c r="I17">
-        <v>-1</v>
+      <c r="H17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
       </c>
       <c r="J17">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>-1</v>
+      </c>
+      <c r="L17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18">
-        <v>-1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" t="s">
-        <v>76</v>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18" t="s">
         <v>77</v>
       </c>
-      <c r="H18">
-        <v>-1</v>
-      </c>
-      <c r="I18">
-        <v>-1</v>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s">
+        <v>79</v>
       </c>
       <c r="J18">
         <v>-1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>-1</v>
+      </c>
+      <c r="L18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19">
-        <v>-1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
       </c>
       <c r="G19" t="s">
         <v>81</v>
       </c>
-      <c r="H19">
-        <v>-1</v>
-      </c>
-      <c r="I19">
-        <v>-1</v>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" t="s">
+        <v>83</v>
       </c>
       <c r="J19">
         <v>-1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>-1</v>
+      </c>
+      <c r="L19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>1000</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2355,31 +2475,37 @@
       <c r="D20">
         <v>-1</v>
       </c>
-      <c r="E20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" t="s">
-        <v>84</v>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
       </c>
       <c r="G20" t="s">
         <v>85</v>
       </c>
-      <c r="H20">
-        <v>-1</v>
-      </c>
-      <c r="I20">
-        <v>-1</v>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" t="s">
+        <v>87</v>
       </c>
       <c r="J20">
         <v>-1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>-1</v>
+      </c>
+      <c r="L20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>1001</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2387,31 +2513,37 @@
       <c r="D21">
         <v>-1</v>
       </c>
-      <c r="E21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" t="s">
-        <v>88</v>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
       <c r="G21" t="s">
         <v>89</v>
       </c>
-      <c r="H21">
-        <v>-1</v>
-      </c>
-      <c r="I21">
-        <v>-1</v>
+      <c r="H21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" t="s">
+        <v>91</v>
       </c>
       <c r="J21">
         <v>-1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>-1</v>
+      </c>
+      <c r="L21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>1002</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2419,31 +2551,37 @@
       <c r="D22">
         <v>-1</v>
       </c>
-      <c r="E22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" t="s">
-        <v>92</v>
+      <c r="E22">
+        <v>-1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22" t="s">
         <v>93</v>
       </c>
-      <c r="H22">
-        <v>-1</v>
-      </c>
-      <c r="I22">
-        <v>-1</v>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" t="s">
+        <v>95</v>
       </c>
       <c r="J22">
         <v>-1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>-1</v>
+      </c>
+      <c r="L22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>1003</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2451,31 +2589,37 @@
       <c r="D23">
         <v>-1</v>
       </c>
-      <c r="E23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" t="s">
-        <v>96</v>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
       </c>
-      <c r="H23">
-        <v>-1</v>
-      </c>
-      <c r="I23">
-        <v>-1</v>
+      <c r="H23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" t="s">
+        <v>99</v>
       </c>
       <c r="J23">
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>-1</v>
+      </c>
+      <c r="L23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>1004</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2483,31 +2627,37 @@
       <c r="D24">
         <v>-1</v>
       </c>
-      <c r="E24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" t="s">
-        <v>100</v>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
       <c r="G24" t="s">
         <v>101</v>
       </c>
-      <c r="H24">
-        <v>-1</v>
-      </c>
-      <c r="I24">
-        <v>-1</v>
+      <c r="H24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" t="s">
+        <v>103</v>
       </c>
       <c r="J24">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>-1</v>
+      </c>
+      <c r="L24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>1005</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2515,31 +2665,37 @@
       <c r="D25">
         <v>-1</v>
       </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" t="s">
-        <v>104</v>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
       </c>
       <c r="G25" t="s">
         <v>105</v>
       </c>
-      <c r="H25">
-        <v>-1</v>
-      </c>
-      <c r="I25">
-        <v>-1</v>
+      <c r="H25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" t="s">
+        <v>107</v>
       </c>
       <c r="J25">
         <v>-1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>-1</v>
+      </c>
+      <c r="L25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>1006</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2547,31 +2703,37 @@
       <c r="D26">
         <v>-1</v>
       </c>
-      <c r="E26" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" t="s">
-        <v>108</v>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
       </c>
       <c r="G26" t="s">
         <v>109</v>
       </c>
-      <c r="H26">
-        <v>-1</v>
-      </c>
-      <c r="I26">
-        <v>-1</v>
+      <c r="H26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" t="s">
+        <v>111</v>
       </c>
       <c r="J26">
         <v>-1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>-1</v>
+      </c>
+      <c r="L26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>1007</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2579,31 +2741,37 @@
       <c r="D27">
         <v>-1</v>
       </c>
-      <c r="E27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" t="s">
-        <v>112</v>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
       <c r="G27" t="s">
         <v>113</v>
       </c>
-      <c r="H27">
-        <v>-1</v>
-      </c>
-      <c r="I27">
-        <v>-1</v>
+      <c r="H27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" t="s">
+        <v>115</v>
       </c>
       <c r="J27">
         <v>-1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>-1</v>
+      </c>
+      <c r="L27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>1008</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2611,31 +2779,37 @@
       <c r="D28">
         <v>-1</v>
       </c>
-      <c r="E28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" t="s">
-        <v>116</v>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
       </c>
       <c r="G28" t="s">
         <v>117</v>
       </c>
-      <c r="H28">
-        <v>-1</v>
-      </c>
-      <c r="I28">
-        <v>-1</v>
+      <c r="H28" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" t="s">
+        <v>119</v>
       </c>
       <c r="J28">
         <v>-1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>-1</v>
+      </c>
+      <c r="L28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>1009</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2643,31 +2817,37 @@
       <c r="D29">
         <v>-1</v>
       </c>
-      <c r="E29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" t="s">
-        <v>120</v>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
       </c>
       <c r="G29" t="s">
         <v>121</v>
       </c>
-      <c r="H29">
-        <v>-1</v>
-      </c>
-      <c r="I29">
-        <v>-1</v>
+      <c r="H29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" t="s">
+        <v>123</v>
       </c>
       <c r="J29">
         <v>-1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>-1</v>
+      </c>
+      <c r="L29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>1010</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2675,31 +2855,37 @@
       <c r="D30">
         <v>-1</v>
       </c>
-      <c r="E30" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" t="s">
-        <v>124</v>
+      <c r="E30">
+        <v>-1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
       </c>
       <c r="G30" t="s">
         <v>125</v>
       </c>
-      <c r="H30">
-        <v>-1</v>
-      </c>
-      <c r="I30">
-        <v>-1</v>
+      <c r="H30" t="s">
+        <v>126</v>
+      </c>
+      <c r="I30" t="s">
+        <v>127</v>
       </c>
       <c r="J30">
         <v>-1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>-1</v>
+      </c>
+      <c r="L30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>1011</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2707,31 +2893,37 @@
       <c r="D31">
         <v>-1</v>
       </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" t="s">
-        <v>128</v>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
       </c>
       <c r="G31" t="s">
         <v>129</v>
       </c>
-      <c r="H31">
-        <v>-1</v>
-      </c>
-      <c r="I31">
-        <v>-1</v>
+      <c r="H31" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" t="s">
+        <v>131</v>
       </c>
       <c r="J31">
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>-1</v>
+      </c>
+      <c r="L31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>1012</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2739,31 +2931,37 @@
       <c r="D32">
         <v>-1</v>
       </c>
-      <c r="E32" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" t="s">
-        <v>132</v>
+      <c r="E32">
+        <v>-1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
       </c>
       <c r="G32" t="s">
         <v>133</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="s">
+        <v>134</v>
+      </c>
+      <c r="I32" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32">
         <v>2</v>
       </c>
-      <c r="I32">
-        <v>-1</v>
-      </c>
-      <c r="J32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>-1</v>
+      </c>
+      <c r="L32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>1013</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2771,31 +2969,37 @@
       <c r="D33">
         <v>-1</v>
       </c>
-      <c r="E33" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" t="s">
-        <v>136</v>
+      <c r="E33">
+        <v>-1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
       </c>
       <c r="G33" t="s">
         <v>137</v>
       </c>
-      <c r="H33">
-        <v>-1</v>
-      </c>
-      <c r="I33">
-        <v>-1</v>
+      <c r="H33" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" t="s">
+        <v>139</v>
       </c>
       <c r="J33">
         <v>-1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>-1</v>
+      </c>
+      <c r="L33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>1014</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2803,31 +3007,37 @@
       <c r="D34">
         <v>-1</v>
       </c>
-      <c r="E34" t="s">
-        <v>139</v>
-      </c>
-      <c r="F34" t="s">
-        <v>140</v>
+      <c r="E34">
+        <v>-1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
       </c>
       <c r="G34" t="s">
         <v>141</v>
       </c>
-      <c r="H34">
-        <v>-1</v>
-      </c>
-      <c r="I34">
-        <v>-1</v>
+      <c r="H34" t="s">
+        <v>142</v>
+      </c>
+      <c r="I34" t="s">
+        <v>143</v>
       </c>
       <c r="J34">
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>-1</v>
+      </c>
+      <c r="L34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>1015</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2835,31 +3045,37 @@
       <c r="D35">
         <v>-1</v>
       </c>
-      <c r="E35" t="s">
-        <v>143</v>
-      </c>
-      <c r="F35" t="s">
-        <v>144</v>
+      <c r="E35">
+        <v>-1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
       </c>
       <c r="G35" t="s">
         <v>145</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="s">
+        <v>146</v>
+      </c>
+      <c r="I35" t="s">
+        <v>147</v>
+      </c>
+      <c r="J35">
         <v>3</v>
       </c>
-      <c r="I35">
-        <v>-1</v>
-      </c>
-      <c r="J35">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>-1</v>
+      </c>
+      <c r="L35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>1016</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -2867,31 +3083,37 @@
       <c r="D36">
         <v>-1</v>
       </c>
-      <c r="E36" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" t="s">
-        <v>148</v>
+      <c r="E36">
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
       </c>
       <c r="G36" t="s">
         <v>149</v>
       </c>
-      <c r="H36">
-        <v>-1</v>
-      </c>
-      <c r="I36">
-        <v>-1</v>
+      <c r="H36" t="s">
+        <v>150</v>
+      </c>
+      <c r="I36" t="s">
+        <v>151</v>
       </c>
       <c r="J36">
         <v>-1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>-1</v>
+      </c>
+      <c r="L36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>1017</v>
       </c>
       <c r="B37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -2899,31 +3121,37 @@
       <c r="D37">
         <v>-1</v>
       </c>
-      <c r="E37" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" t="s">
-        <v>152</v>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
       </c>
       <c r="G37" t="s">
         <v>153</v>
       </c>
-      <c r="H37">
-        <v>-1</v>
-      </c>
-      <c r="I37">
-        <v>-1</v>
+      <c r="H37" t="s">
+        <v>154</v>
+      </c>
+      <c r="I37" t="s">
+        <v>155</v>
       </c>
       <c r="J37">
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>-1</v>
+      </c>
+      <c r="L37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>1018</v>
       </c>
       <c r="B38" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2931,31 +3159,37 @@
       <c r="D38">
         <v>-1</v>
       </c>
-      <c r="E38" t="s">
-        <v>155</v>
-      </c>
-      <c r="F38" t="s">
-        <v>156</v>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
       </c>
       <c r="G38" t="s">
         <v>157</v>
       </c>
-      <c r="H38">
-        <v>-1</v>
-      </c>
-      <c r="I38">
-        <v>-1</v>
+      <c r="H38" t="s">
+        <v>158</v>
+      </c>
+      <c r="I38" t="s">
+        <v>159</v>
       </c>
       <c r="J38">
         <v>-1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>-1</v>
+      </c>
+      <c r="L38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>1019</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -2963,31 +3197,37 @@
       <c r="D39">
         <v>-1</v>
       </c>
-      <c r="E39" t="s">
-        <v>159</v>
-      </c>
-      <c r="F39" t="s">
-        <v>160</v>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
       </c>
       <c r="G39" t="s">
         <v>161</v>
       </c>
-      <c r="H39">
-        <v>-1</v>
-      </c>
-      <c r="I39">
-        <v>-1</v>
+      <c r="H39" t="s">
+        <v>162</v>
+      </c>
+      <c r="I39" t="s">
+        <v>163</v>
       </c>
       <c r="J39">
         <v>-1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>-1</v>
+      </c>
+      <c r="L39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>1020</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -2995,31 +3235,37 @@
       <c r="D40">
         <v>-1</v>
       </c>
-      <c r="E40" t="s">
-        <v>163</v>
-      </c>
-      <c r="F40" t="s">
-        <v>164</v>
+      <c r="E40">
+        <v>-1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
       </c>
       <c r="G40" t="s">
         <v>165</v>
       </c>
-      <c r="H40">
-        <v>-1</v>
-      </c>
-      <c r="I40">
-        <v>-1</v>
+      <c r="H40" t="s">
+        <v>166</v>
+      </c>
+      <c r="I40" t="s">
+        <v>167</v>
       </c>
       <c r="J40">
         <v>-1</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>-1</v>
+      </c>
+      <c r="L40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>1021</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -3027,31 +3273,37 @@
       <c r="D41">
         <v>-1</v>
       </c>
-      <c r="E41" t="s">
-        <v>167</v>
-      </c>
-      <c r="F41" t="s">
-        <v>168</v>
+      <c r="E41">
+        <v>-1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
       </c>
       <c r="G41" t="s">
         <v>169</v>
       </c>
-      <c r="H41">
-        <v>-1</v>
-      </c>
-      <c r="I41">
-        <v>-1</v>
+      <c r="H41" t="s">
+        <v>170</v>
+      </c>
+      <c r="I41" t="s">
+        <v>171</v>
       </c>
       <c r="J41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>-1</v>
+      </c>
+      <c r="L41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>1022</v>
       </c>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -3059,31 +3311,37 @@
       <c r="D42">
         <v>-1</v>
       </c>
-      <c r="E42" t="s">
-        <v>171</v>
-      </c>
-      <c r="F42" t="s">
-        <v>172</v>
+      <c r="E42">
+        <v>-1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
       </c>
       <c r="G42" t="s">
         <v>173</v>
       </c>
-      <c r="H42">
-        <v>-1</v>
-      </c>
-      <c r="I42">
-        <v>-1</v>
+      <c r="H42" t="s">
+        <v>174</v>
+      </c>
+      <c r="I42" t="s">
+        <v>175</v>
       </c>
       <c r="J42">
         <v>-1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>-1</v>
+      </c>
+      <c r="L42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>1023</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -3091,31 +3349,37 @@
       <c r="D43">
         <v>-1</v>
       </c>
-      <c r="E43" t="s">
-        <v>175</v>
-      </c>
-      <c r="F43" t="s">
-        <v>176</v>
+      <c r="E43">
+        <v>-1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
       </c>
       <c r="G43" t="s">
         <v>177</v>
       </c>
-      <c r="H43">
-        <v>-1</v>
-      </c>
-      <c r="I43">
-        <v>-1</v>
+      <c r="H43" t="s">
+        <v>178</v>
+      </c>
+      <c r="I43" t="s">
+        <v>179</v>
       </c>
       <c r="J43">
         <v>-1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>-1</v>
+      </c>
+      <c r="L43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>1024</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -3123,22 +3387,28 @@
       <c r="D44">
         <v>-1</v>
       </c>
-      <c r="E44" t="s">
-        <v>179</v>
-      </c>
-      <c r="F44" t="s">
-        <v>180</v>
+      <c r="E44">
+        <v>-1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
       </c>
       <c r="G44" t="s">
         <v>181</v>
       </c>
-      <c r="H44">
-        <v>-1</v>
-      </c>
-      <c r="I44">
-        <v>-1</v>
+      <c r="H44" t="s">
+        <v>182</v>
+      </c>
+      <c r="I44" t="s">
+        <v>183</v>
       </c>
       <c r="J44">
+        <v>-1</v>
+      </c>
+      <c r="K44">
+        <v>-1</v>
+      </c>
+      <c r="L44">
         <v>-1</v>
       </c>
     </row>

--- a/Data/SkillDefine.xlsx
+++ b/Data/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="176">
   <si>
     <t>ID</t>
   </si>
@@ -284,7 +284,7 @@
     <t>攻击增幅</t>
   </si>
   <si>
-    <t>AddStrength</t>
+    <t>ChangeProperty</t>
   </si>
   <si>
     <t>加力量</t>
@@ -296,9 +296,6 @@
     <t>防御增幅</t>
   </si>
   <si>
-    <t>AddDefense</t>
-  </si>
-  <si>
     <t>加防御</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
     <t>生命增幅</t>
   </si>
   <si>
-    <t>AddMaxHp</t>
-  </si>
-  <si>
     <t>加最大生命值</t>
   </si>
   <si>
@@ -320,9 +314,6 @@
     <t>闪避增幅</t>
   </si>
   <si>
-    <t>AddDodge</t>
-  </si>
-  <si>
     <t>加闪避</t>
   </si>
   <si>
@@ -332,9 +323,6 @@
     <t>命中增幅</t>
   </si>
   <si>
-    <t>AddAccuracy</t>
-  </si>
-  <si>
     <t>加命中</t>
   </si>
   <si>
@@ -344,9 +332,6 @@
     <t>速度增幅</t>
   </si>
   <si>
-    <t>AddSpeed</t>
-  </si>
-  <si>
     <t>加速度</t>
   </si>
   <si>
@@ -356,9 +341,6 @@
     <t>精力增幅</t>
   </si>
   <si>
-    <t>AddEnergy</t>
-  </si>
-  <si>
     <t>加精力</t>
   </si>
   <si>
@@ -416,9 +398,6 @@
     <t>吸血</t>
   </si>
   <si>
-    <t>Hematophagia</t>
-  </si>
-  <si>
     <t>根据攻击伤害恢复一定比例生命值</t>
   </si>
   <si>
@@ -431,7 +410,7 @@
     <t>BleedEnchant</t>
   </si>
   <si>
-    <t>每一次攻击附加一层流血</t>
+    <t>每一次击伤附加一层流血</t>
   </si>
   <si>
     <t>Skill_BleedEnchant</t>
@@ -440,10 +419,7 @@
     <t>舍近求远</t>
   </si>
   <si>
-    <t>PreferFar</t>
-  </si>
-  <si>
-    <t>与敌方单位每相距一格，攻击伤害增加10%</t>
+    <t>与敌方单位每相距一格，攻击伤害增加5</t>
   </si>
   <si>
     <t>Skill_PreferFar</t>
@@ -1725,8 +1701,8 @@
   <sheetPr/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F44"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D21" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2473,13 +2449,13 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
         <v>85</v>
@@ -2511,22 +2487,22 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" t="s">
         <v>89</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>90</v>
-      </c>
-      <c r="I21" t="s">
-        <v>91</v>
       </c>
       <c r="J21">
         <v>-1</v>
@@ -2543,28 +2519,28 @@
         <v>1002</v>
       </c>
       <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" t="s">
         <v>92</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>-1</v>
-      </c>
-      <c r="E22">
-        <v>-1</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>93</v>
-      </c>
-      <c r="H22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" t="s">
-        <v>95</v>
       </c>
       <c r="J22">
         <v>-1</v>
@@ -2581,28 +2557,28 @@
         <v>1003</v>
       </c>
       <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" t="s">
         <v>96</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>-1</v>
-      </c>
-      <c r="E23">
-        <v>-1</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>97</v>
-      </c>
-      <c r="H23" t="s">
-        <v>98</v>
-      </c>
-      <c r="I23" t="s">
-        <v>99</v>
       </c>
       <c r="J23">
         <v>-1</v>
@@ -2619,28 +2595,28 @@
         <v>1004</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J24">
         <v>-1</v>
@@ -2657,28 +2633,28 @@
         <v>1005</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J25">
         <v>-1</v>
@@ -2695,28 +2671,28 @@
         <v>1006</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I26" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J26">
         <v>-1</v>
@@ -2733,28 +2709,28 @@
         <v>1007</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>-1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H27" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I27" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J27">
         <v>-1</v>
@@ -2771,7 +2747,7 @@
         <v>1008</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2783,16 +2759,16 @@
         <v>-1</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H28" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J28">
         <v>-1</v>
@@ -2809,7 +2785,7 @@
         <v>1009</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2824,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H29" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I29" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J29">
         <v>-1</v>
@@ -2847,7 +2823,7 @@
         <v>1010</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2859,16 +2835,16 @@
         <v>-1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I30" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J30">
         <v>-1</v>
@@ -2885,28 +2861,28 @@
         <v>1011</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I31" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J31">
         <v>-1</v>
@@ -2923,7 +2899,7 @@
         <v>1012</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2938,13 +2914,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I32" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -2961,28 +2937,28 @@
         <v>1013</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I33" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J33">
         <v>-1</v>
@@ -2999,13 +2975,13 @@
         <v>1014</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>-1</v>
@@ -3014,13 +2990,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H34" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I34" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J34">
         <v>-1</v>
@@ -3037,7 +3013,7 @@
         <v>1015</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -3052,13 +3028,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H35" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I35" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J35">
         <v>3</v>
@@ -3075,7 +3051,7 @@
         <v>1016</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -3090,13 +3066,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H36" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I36" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="J36">
         <v>-1</v>
@@ -3113,7 +3089,7 @@
         <v>1017</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -3128,13 +3104,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H37" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I37" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J37">
         <v>-1</v>
@@ -3151,7 +3127,7 @@
         <v>1018</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -3166,13 +3142,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H38" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I38" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="J38">
         <v>-1</v>
@@ -3189,7 +3165,7 @@
         <v>1019</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -3204,13 +3180,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H39" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I39" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J39">
         <v>-1</v>
@@ -3227,7 +3203,7 @@
         <v>1020</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -3242,13 +3218,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H40" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I40" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="J40">
         <v>-1</v>
@@ -3265,7 +3241,7 @@
         <v>1021</v>
       </c>
       <c r="B41" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -3280,13 +3256,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H41" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I41" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="J41">
         <v>-1</v>
@@ -3303,7 +3279,7 @@
         <v>1022</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -3318,13 +3294,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H42" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I42" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="J42">
         <v>-1</v>
@@ -3341,7 +3317,7 @@
         <v>1023</v>
       </c>
       <c r="B43" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -3356,13 +3332,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H43" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J43">
         <v>-1</v>
@@ -3379,7 +3355,7 @@
         <v>1024</v>
       </c>
       <c r="B44" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -3394,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H44" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I44" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J44">
         <v>-1</v>

--- a/Data/SkillDefine.xlsx
+++ b/Data/SkillDefine.xlsx
@@ -455,7 +455,7 @@
     <t>GoForward</t>
   </si>
   <si>
-    <t>对敌方攻击进行闪避后，追加一次攻击</t>
+    <t>对敌方攻击进行闪避后，追加一次直接伤害</t>
   </si>
   <si>
     <t>Skill_GoForward</t>
@@ -479,7 +479,7 @@
     <t>ExtremeOperation</t>
   </si>
   <si>
-    <t>最后一点行动力用作攻击后，获得闪避加成</t>
+    <t>最后一点行动力用作攻击后，获得闪避加成，持续一回合</t>
   </si>
   <si>
     <t>Skill_ExtremeOperation</t>
@@ -503,7 +503,7 @@
     <t>VeryHeavy</t>
   </si>
   <si>
-    <t>生命和防御大幅提高，其余全属性降低</t>
+    <t>生命和防御大幅提高，力量、速度、准确度、闪避降低</t>
   </si>
   <si>
     <t>Skill_VeryHeavy</t>
@@ -539,7 +539,7 @@
     <t>LookMe</t>
   </si>
   <si>
-    <t>增加嘲讽值100点</t>
+    <t>增加嘲讽值20%</t>
   </si>
   <si>
     <t>Skill_LookMe</t>
@@ -1701,8 +1701,8 @@
   <sheetPr/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="H22" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -3063,7 +3063,7 @@
         <v>-1</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36" t="s">
         <v>141</v>
@@ -3253,7 +3253,7 @@
         <v>-1</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G41" t="s">
         <v>161</v>
@@ -3329,7 +3329,7 @@
         <v>-1</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
         <v>169</v>

--- a/Data/SkillDefine.xlsx
+++ b/Data/SkillDefine.xlsx
@@ -1701,8 +1701,8 @@
   <sheetPr/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="H22" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -3025,7 +3025,7 @@
         <v>-1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="s">
         <v>137</v>
@@ -3139,7 +3139,7 @@
         <v>-1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G38" t="s">
         <v>149</v>

--- a/Data/SkillDefine.xlsx
+++ b/Data/SkillDefine.xlsx
@@ -1701,8 +1701,8 @@
   <sheetPr/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -2297,7 +2297,7 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>-1</v>
@@ -2335,7 +2335,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>-1</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>-1</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>-1</v>
@@ -2829,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>-1</v>
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>-1</v>
@@ -3019,7 +3019,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>-1</v>
@@ -3057,7 +3057,7 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>-1</v>
@@ -3095,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>-1</v>
@@ -3133,7 +3133,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>-1</v>
@@ -3171,7 +3171,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>-1</v>
@@ -3209,7 +3209,7 @@
         <v>3</v>
       </c>
       <c r="D40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>-1</v>
@@ -3247,10 +3247,10 @@
         <v>3</v>
       </c>
       <c r="D41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -3285,7 +3285,7 @@
         <v>3</v>
       </c>
       <c r="D42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>-1</v>
@@ -3323,7 +3323,7 @@
         <v>3</v>
       </c>
       <c r="D43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>-1</v>
@@ -3361,7 +3361,7 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>-1</v>

--- a/Data/SkillDefine.xlsx
+++ b/Data/SkillDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13160"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1702,7 +1702,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/Data/SkillDefine.xlsx
+++ b/Data/SkillDefine.xlsx
@@ -1702,7 +1702,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/Data/SkillDefine.xlsx
+++ b/Data/SkillDefine.xlsx
@@ -1702,7 +1702,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/Data/SkillDefine.xlsx
+++ b/Data/SkillDefine.xlsx
@@ -1702,7 +1702,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1762,7 +1762,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -1838,7 +1838,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>-1</v>
@@ -1952,7 +1952,7 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>36</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>40</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -2066,7 +2066,7 @@
         <v>44</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>48</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         <v>52</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2180,7 +2180,7 @@
         <v>56</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2218,7 +2218,7 @@
         <v>60</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2256,7 +2256,7 @@
         <v>64</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2294,7 +2294,7 @@
         <v>68</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2332,7 +2332,7 @@
         <v>72</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2370,7 +2370,7 @@
         <v>76</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>80</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>1</v>
